--- a/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.355677433319087</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.768736544207423</v>
+        <v>8.768736544207433</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04837188731846213</v>
@@ -649,7 +649,7 @@
         <v>0.1989253099449996</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.16958650232067</v>
+        <v>0.1695865023206702</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.623819360460187</v>
+        <v>-1.918689299906084</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.931839329006639</v>
+        <v>6.468834780854535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.308601533220172</v>
+        <v>4.731979958147668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.191361037352627</v>
+        <v>3.973551204955298</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03161791831273063</v>
+        <v>-0.03724859712751711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2476587996988177</v>
+        <v>0.223956877864898</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08914181550033551</v>
+        <v>0.09594560515506667</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.07417722926675722</v>
+        <v>0.07247202811639654</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.628542873075134</v>
+        <v>6.107035969719774</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.27599566923672</v>
+        <v>14.27127662217782</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.18613578600564</v>
+        <v>14.16993794672861</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.88526408384183</v>
+        <v>13.91258140794711</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1386442913627491</v>
+        <v>0.1298271518982987</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6188068117284624</v>
+        <v>0.5923474622043484</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3223933534273015</v>
+        <v>0.3190227815746547</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2884301770387457</v>
+        <v>0.2904651312217706</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.870788710943538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.796264813637126</v>
+        <v>5.796264813637119</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07179355876075179</v>
@@ -749,7 +749,7 @@
         <v>0.2460235768177282</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1822545682130244</v>
+        <v>0.1822545682130242</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4362134116648156</v>
+        <v>-0.5791546344027289</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.502791210022306</v>
+        <v>4.519167065984139</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.53326935286009</v>
+        <v>4.904361901037076</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.816887490364054</v>
+        <v>2.567679286493706</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01008768643239234</v>
+        <v>-0.01223654513895436</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1784347796626042</v>
+        <v>0.1815182047894448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1376804384976706</v>
+        <v>0.1455323177998151</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08336415302734902</v>
+        <v>0.07811313473376336</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.601380021960623</v>
+        <v>6.439664805448916</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.49979480314162</v>
+        <v>10.34132924786087</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.6433846370627</v>
+        <v>10.98509434267235</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.645429308304079</v>
+        <v>8.568672153113774</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.172234276043298</v>
+        <v>0.1693190763997252</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4835003424632499</v>
+        <v>0.4768005046833975</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3485652776176881</v>
+        <v>0.3594542135813596</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2866438132470941</v>
+        <v>0.2856704141218083</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.434834527067189</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.280645594686468</v>
+        <v>3.280645594686463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4460360008622125</v>
@@ -849,7 +849,7 @@
         <v>0.2367864950685717</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1398491488617188</v>
+        <v>0.1398491488617185</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.913306981473307</v>
+        <v>5.874027689372661</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4916735113643831</v>
+        <v>-0.2253729770230338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.01820230731656311</v>
+        <v>0.00637369415168745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.404508469655772</v>
+        <v>-1.448807207427379</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1852341568142902</v>
+        <v>0.1842581978383941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.03982911758189366</v>
+        <v>-0.03257637020767054</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.001237136633579268</v>
+        <v>-0.004892877143752647</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05408103742551651</v>
+        <v>-0.05157942425161884</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.75420138020961</v>
+        <v>17.6222397933845</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.891983981155498</v>
+        <v>9.337283164869611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.14938726576951</v>
+        <v>11.67164602966401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.010102803486046</v>
+        <v>7.774148200454892</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7399505241913896</v>
+        <v>0.7253442228072193</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7731069219044646</v>
+        <v>0.8153625410661505</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5516723809891223</v>
+        <v>0.5776228642534755</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3805823109072018</v>
+        <v>0.381002489106491</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.844778829667661</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.105622722809334</v>
+        <v>7.105622722809329</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1233556284741036</v>
@@ -949,7 +949,7 @@
         <v>0.2610067883278214</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2129249814510596</v>
+        <v>0.2129249814510594</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.537974500717267</v>
+        <v>2.511172079898007</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.210897097918319</v>
+        <v>6.461267966597573</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.627753822849311</v>
+        <v>6.509879709918458</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.742132884070472</v>
+        <v>4.823792214096414</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05969502815604549</v>
+        <v>0.058159477412126</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2611758427158384</v>
+        <v>0.2796801424837341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1893342919550045</v>
+        <v>0.1867586563053171</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1362751082761359</v>
+        <v>0.1376286478996444</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.490839391346045</v>
+        <v>7.566542392681431</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.74291929570203</v>
+        <v>10.90837372997955</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.09645156478173</v>
+        <v>11.06321592128578</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.351481920182996</v>
+        <v>9.217981517713319</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1871499532167874</v>
+        <v>0.1874608970976979</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5034360153257915</v>
+        <v>0.5119166059730772</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3421518054705869</v>
+        <v>0.3390816966503156</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2924341619822216</v>
+        <v>0.2900232471293521</v>
       </c>
     </row>
     <row r="16">
